--- a/data_cleaning/Table_D.xlsx
+++ b/data_cleaning/Table_D.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="11">
   <si>
     <t>site_1</t>
   </si>
@@ -33,15 +33,6 @@
   </si>
   <si>
     <t>site_3</t>
-  </si>
-  <si>
-    <t>site_4</t>
-  </si>
-  <si>
-    <t>site_5</t>
-  </si>
-  <si>
-    <t>site_6</t>
   </si>
   <si>
     <t>latitude</t>
@@ -73,7 +64,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -106,7 +97,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{717411C7-BE01-4A3D-950F-E9B51F6BC35F}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,13 +427,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -450,11 +441,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1">
         <f ca="1">RANDBETWEEN(40, 50)+RAND()</f>
-        <v>40.49029098041526</v>
+        <v>46.017064594764825</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -462,11 +453,11 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1">
         <f ca="1">RANDBETWEEN(-89, -85)+RAND()</f>
-        <v>-85.298073631595088</v>
+        <v>-87.12056935924906</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -474,11 +465,11 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <f ca="1">RANDBETWEEN(390, 400)</f>
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -486,11 +477,11 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <f ca="1">RANDBETWEEN(5,8)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -498,11 +489,11 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <f ca="1">RANDBETWEEN(500,900)</f>
-        <v>693</v>
+        <v>512</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -510,11 +501,11 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" ref="C7" ca="1" si="0">RANDBETWEEN(40, 50)+RAND()</f>
-        <v>40.648748399301567</v>
+        <v>50.001983518065153</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -522,11 +513,11 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" ref="C8" ca="1" si="1">RANDBETWEEN(-89, -85)+RAND()</f>
-        <v>-84.112030089090425</v>
+        <v>-87.581158184010476</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -534,11 +525,11 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <f t="shared" ref="C9" ca="1" si="2">RANDBETWEEN(390, 400)</f>
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -546,11 +537,11 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <f t="shared" ref="C10" ca="1" si="3">RANDBETWEEN(5,8)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -558,11 +549,11 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <f t="shared" ref="C11" ca="1" si="4">RANDBETWEEN(500,900)</f>
-        <v>864</v>
+        <v>782</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -570,11 +561,11 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" ref="C12" ca="1" si="5">RANDBETWEEN(40, 50)+RAND()</f>
-        <v>45.797729749746907</v>
+        <v>50.475970756941152</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -582,11 +573,11 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" ref="C13" ca="1" si="6">RANDBETWEEN(-89, -85)+RAND()</f>
-        <v>-87.042457539614404</v>
+        <v>-84.843223163097235</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -594,11 +585,11 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C14">
         <f t="shared" ref="C14" ca="1" si="7">RANDBETWEEN(390, 400)</f>
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -606,11 +597,11 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C15">
         <f t="shared" ref="C15" ca="1" si="8">RANDBETWEEN(5,8)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -618,43 +609,43 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C16">
         <f t="shared" ref="C16" ca="1" si="9">RANDBETWEEN(500,900)</f>
-        <v>587</v>
+        <v>534</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
         <v>3</v>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" ref="C17" ca="1" si="10">RANDBETWEEN(40, 50)+RAND()</f>
-        <v>42.950289853636704</v>
+        <v>44.510081278176614</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" ref="C18" ca="1" si="11">RANDBETWEEN(-89, -85)+RAND()</f>
-        <v>-86.475613737645006</v>
+        <v>-84.105014110835185</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C19">
         <f t="shared" ref="C19" ca="1" si="12">RANDBETWEEN(390, 400)</f>
@@ -663,147 +654,39 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C20">
         <f t="shared" ref="C20" ca="1" si="13">RANDBETWEEN(5,8)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C21">
         <f t="shared" ref="C21" ca="1" si="14">RANDBETWEEN(500,900)</f>
-        <v>623</v>
+        <v>742</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="1">
-        <f t="shared" ref="C22" ca="1" si="15">RANDBETWEEN(40, 50)+RAND()</f>
-        <v>47.227558264575165</v>
-      </c>
+      <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="1">
-        <f t="shared" ref="C23" ca="1" si="16">RANDBETWEEN(-89, -85)+RAND()</f>
-        <v>-88.3800556677119</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24">
-        <f t="shared" ref="C24" ca="1" si="17">RANDBETWEEN(390, 400)</f>
-        <v>393</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25">
-        <f t="shared" ref="C25" ca="1" si="18">RANDBETWEEN(5,8)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26">
-        <f t="shared" ref="C26" ca="1" si="19">RANDBETWEEN(500,900)</f>
-        <v>722</v>
-      </c>
+      <c r="C23" s="1"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="1">
-        <f t="shared" ref="C27" ca="1" si="20">RANDBETWEEN(40, 50)+RAND()</f>
-        <v>40.643602756147189</v>
-      </c>
+      <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="1">
-        <f t="shared" ref="C28" ca="1" si="21">RANDBETWEEN(-89, -85)+RAND()</f>
-        <v>-85.467295068470378</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29">
-        <f t="shared" ref="C29" ca="1" si="22">RANDBETWEEN(390, 400)</f>
-        <v>394</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30">
-        <f t="shared" ref="C30" ca="1" si="23">RANDBETWEEN(5,8)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31">
-        <f t="shared" ref="C31" ca="1" si="24">RANDBETWEEN(500,900)</f>
-        <v>799</v>
-      </c>
+      <c r="C28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
